--- a/Archivos originales usados/Data trimestral agosto 2023.xlsx
+++ b/Archivos originales usados/Data trimestral agosto 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Macriana/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/Archivos originales usados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB0158B-003F-AF4A-A10F-4AF10733957B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC682AB9-7A10-304F-A8A1-67667791A8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="36">
   <si>
     <t>Ebc</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>pasó Nicolás Bertholet que es INDEC y CIFRA.</t>
+  </si>
+  <si>
+    <t>ipc_ajust</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>

--- a/Archivos originales usados/Data trimestral agosto 2023.xlsx
+++ b/Archivos originales usados/Data trimestral agosto 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Macriana/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/Archivos originales usados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC682AB9-7A10-304F-A8A1-67667791A8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F28A04F-0756-934E-B2E7-36F34C356114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
@@ -5571,7 +5571,7 @@
         <v>4.7766666666666673</v>
       </c>
       <c r="L124" s="7">
-        <v>129.17685411572901</v>
+        <v>129.22099281244192</v>
       </c>
       <c r="M124" s="4">
         <v>97.960729999999998</v>
@@ -5612,7 +5612,7 @@
         <v>4.3033333333333337</v>
       </c>
       <c r="L125" s="7">
-        <v>116.65381649961401</v>
+        <v>116.72228639167388</v>
       </c>
       <c r="M125" s="4">
         <v>97.839569999999995</v>
@@ -5653,7 +5653,7 @@
         <v>5.2399999999999993</v>
       </c>
       <c r="L126" s="7">
-        <v>122.10031347962399</v>
+        <v>122.15208715801195</v>
       </c>
       <c r="M126" s="4">
         <v>98.428269999999998</v>
@@ -5694,7 +5694,7 @@
         <v>6.1400000000000006</v>
       </c>
       <c r="L127" s="7">
-        <v>135.28481012658202</v>
+        <v>135.25946701534869</v>
       </c>
       <c r="M127" s="4">
         <v>99.571240000000003</v>
@@ -5735,7 +5735,7 @@
         <v>7.22</v>
       </c>
       <c r="L128" s="7">
-        <v>140.15151515151499</v>
+        <v>140.15419936184074</v>
       </c>
       <c r="M128" s="4">
         <v>100.3669</v>
@@ -5776,7 +5776,7 @@
         <v>7.86</v>
       </c>
       <c r="L129" s="7">
-        <v>134.44130127298402</v>
+        <v>134.53784928816108</v>
       </c>
       <c r="M129" s="4">
         <v>100.4252</v>
@@ -5817,7 +5817,7 @@
         <v>7.41</v>
       </c>
       <c r="L130" s="7">
-        <v>137.19424460431699</v>
+        <v>137.34945029473809</v>
       </c>
       <c r="M130" s="4">
         <v>100.1979</v>
@@ -5858,7 +5858,7 @@
         <v>7.2566666666666668</v>
       </c>
       <c r="L131" s="7">
-        <v>143.44512195121999</v>
+        <v>143.41785642602645</v>
       </c>
       <c r="M131" s="4">
         <v>99.355990000000006</v>
@@ -5899,7 +5899,7 @@
         <v>7.1166666666666663</v>
       </c>
       <c r="L132" s="7">
-        <v>145.62883435582802</v>
+        <v>145.60697966615669</v>
       </c>
       <c r="M132" s="4">
         <v>99.712789999999998</v>
@@ -5940,7 +5940,7 @@
         <v>6.8266666666666671</v>
       </c>
       <c r="L133" s="7">
-        <v>134.04844290657402</v>
+        <v>134.10628670134193</v>
       </c>
       <c r="M133" s="4">
         <v>100.0688</v>
@@ -5981,7 +5981,7 @@
         <v>8.0666666666666664</v>
       </c>
       <c r="L134" s="7">
-        <v>147.694633408919</v>
+        <v>147.82197291678071</v>
       </c>
       <c r="M134" s="4">
         <v>101.01909999999999</v>
@@ -6022,7 +6022,7 @@
         <v>8.3833333333333346</v>
       </c>
       <c r="L135" s="7">
-        <v>151.33020344287903</v>
+        <v>151.33448023184755</v>
       </c>
       <c r="M135" s="4">
         <v>100.599</v>
@@ -6063,7 +6063,7 @@
         <v>7.96</v>
       </c>
       <c r="L136" s="7">
-        <v>141.00145137881</v>
+        <v>141.08921689417656</v>
       </c>
       <c r="M136" s="4">
         <v>100.4335</v>
@@ -6104,7 +6104,7 @@
         <v>7.5866666666666669</v>
       </c>
       <c r="L137" s="7">
-        <v>131.44016227180501</v>
+        <v>131.40654987445168</v>
       </c>
       <c r="M137" s="4">
         <v>100.4346</v>
@@ -6145,7 +6145,7 @@
         <v>6.876666666666666</v>
       </c>
       <c r="L138" s="7">
-        <v>135.05376344086002</v>
+        <v>135.25404802120275</v>
       </c>
       <c r="M138" s="4">
         <v>100.15009999999999</v>
@@ -6186,7 +6186,7 @@
         <v>6.84</v>
       </c>
       <c r="L139" s="7">
-        <v>133.55072463768101</v>
+        <v>133.63753856232196</v>
       </c>
       <c r="M139" s="4">
         <v>99.788399999999996</v>
@@ -6227,7 +6227,7 @@
         <v>6.63</v>
       </c>
       <c r="L140" s="7">
-        <v>134.399431414357</v>
+        <v>134.48710402540962</v>
       </c>
       <c r="M140" s="4">
         <v>99.946299999999994</v>
@@ -6268,7 +6268,7 @@
         <v>6.7966666666666669</v>
       </c>
       <c r="L141" s="7">
-        <v>135.933147632312</v>
+        <v>135.98773210236862</v>
       </c>
       <c r="M141" s="4">
         <v>100.2285</v>
@@ -6309,7 +6309,7 @@
         <v>5.9433333333333342</v>
       </c>
       <c r="L142" s="7">
-        <v>131.83440399714502</v>
+        <v>131.86689882489952</v>
       </c>
       <c r="M142" s="4">
         <v>99.332239999999999</v>
@@ -6350,7 +6350,7 @@
         <v>5.9633333333333338</v>
       </c>
       <c r="L143" s="7">
-        <v>127.272727272727</v>
+        <v>127.26057577768604</v>
       </c>
       <c r="M143" s="4">
         <v>99.151589999999999</v>
@@ -6391,7 +6391,7 @@
         <v>5.9133333333333331</v>
       </c>
       <c r="L144" s="7">
-        <v>129.247478665632</v>
+        <v>129.24493533383529</v>
       </c>
       <c r="M144" s="4">
         <v>99.116460000000004</v>
@@ -6432,7 +6432,7 @@
         <v>5.4366666666666674</v>
       </c>
       <c r="L145" s="7">
-        <v>121.68861347792401</v>
+        <v>121.73967770554374</v>
       </c>
       <c r="M145" s="4">
         <v>99.127650000000003</v>
@@ -6473,7 +6473,7 @@
         <v>4.93</v>
       </c>
       <c r="L146" s="7">
-        <v>125.991902834008</v>
+        <v>126.10747732075497</v>
       </c>
       <c r="M146" s="4">
         <v>99.190569999999994</v>
@@ -6514,7 +6514,7 @@
         <v>4.8233333333333333</v>
       </c>
       <c r="L147" s="7">
-        <v>128.98799313893699</v>
+        <v>129.04919799556225</v>
       </c>
       <c r="M147" s="4">
         <v>99.001059999999995</v>
@@ -6555,7 +6555,7 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="L148" s="7">
-        <v>128.64816472694699</v>
+        <v>128.66807061208692</v>
       </c>
       <c r="M148" s="4">
         <v>99.154030000000006</v>
@@ -6596,7 +6596,7 @@
         <v>4.37</v>
       </c>
       <c r="L149" s="7">
-        <v>133.12217194570101</v>
+        <v>133.06968447779758</v>
       </c>
       <c r="M149" s="4">
         <v>99.898939999999996</v>
@@ -6637,7 +6637,7 @@
         <v>3.6366666666666667</v>
       </c>
       <c r="L150" s="7">
-        <v>139.551569506726</v>
+        <v>139.49264984177094</v>
       </c>
       <c r="M150" s="4">
         <v>99.623320000000007</v>
@@ -6678,7 +6678,7 @@
         <v>3.8200000000000003</v>
       </c>
       <c r="L151" s="7">
-        <v>135.10167992926603</v>
+        <v>135.21581484478369</v>
       </c>
       <c r="M151" s="4">
         <v>99.417109999999994</v>
@@ -6719,7 +6719,7 @@
         <v>4.18</v>
       </c>
       <c r="L152" s="7">
-        <v>130.49828178694199</v>
+        <v>130.61897674971746</v>
       </c>
       <c r="M152" s="4">
         <v>99.502269999999996</v>
@@ -6760,7 +6760,7 @@
         <v>4.1933333333333342</v>
       </c>
       <c r="L153" s="7">
-        <v>126.984126984127</v>
+        <v>126.97319448488254</v>
       </c>
       <c r="M153" s="4">
         <v>99.420439999999999</v>
@@ -6801,7 +6801,7 @@
         <v>4.753333333333333</v>
       </c>
       <c r="L154" s="7">
-        <v>128.044596912521</v>
+        <v>128.0484298310661</v>
       </c>
       <c r="M154" s="4">
         <v>99.401989999999998</v>
@@ -6842,7 +6842,7 @@
         <v>4.62</v>
       </c>
       <c r="L155" s="7">
-        <v>135.63318777292602</v>
+        <v>135.67605282124754</v>
       </c>
       <c r="M155" s="4">
         <v>99.229619999999997</v>
@@ -6883,7 +6883,7 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="L156" s="7">
-        <v>133.1</v>
+        <v>133.20811085148281</v>
       </c>
       <c r="M156" s="4">
         <v>99.426299999999998</v>
@@ -6924,7 +6924,7 @@
         <v>5.2866666666666662</v>
       </c>
       <c r="L157" s="7">
-        <v>137.4</v>
+        <v>137.34678725155521</v>
       </c>
       <c r="M157" s="4">
         <v>99.507900000000006</v>
@@ -6965,7 +6965,7 @@
         <v>5.1533333333333333</v>
       </c>
       <c r="L158" s="7">
-        <v>129.80000000000001</v>
+        <v>129.77245061425353</v>
       </c>
       <c r="M158" s="4">
         <v>98.837699999999998</v>
@@ -7006,7 +7006,7 @@
         <v>5.2433333333333332</v>
       </c>
       <c r="L159" s="7">
-        <v>126.8</v>
+        <v>126.70333012505692</v>
       </c>
       <c r="M159" s="4">
         <v>98.774640000000005</v>
@@ -7047,7 +7047,7 @@
         <v>5.2666666666666666</v>
       </c>
       <c r="L160" s="7">
-        <v>129</v>
+        <v>129.08392899246562</v>
       </c>
       <c r="M160" s="4">
         <v>99.030839999999998</v>
@@ -7088,7 +7088,7 @@
         <v>4.84</v>
       </c>
       <c r="L161" s="7">
-        <v>129.30000000000001</v>
+        <v>129.39128809718127</v>
       </c>
       <c r="M161" s="4">
         <v>99.120199999999997</v>
@@ -7129,7 +7129,7 @@
         <v>4.3733333333333331</v>
       </c>
       <c r="L162" s="7">
-        <v>130.9</v>
+        <v>130.96149597384806</v>
       </c>
       <c r="M162" s="4">
         <v>99.189390000000003</v>
@@ -7170,7 +7170,7 @@
         <v>4.4933333333333332</v>
       </c>
       <c r="L163" s="7">
-        <v>133.4</v>
+        <v>133.57246028534308</v>
       </c>
       <c r="M163" s="4">
         <v>99.281130000000005</v>
